--- a/Income/TYL_inc.xlsx
+++ b/Income/TYL_inc.xlsx
@@ -1983,16 +1983,16 @@
         <v>0.4664</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4672</v>
+        <v>0.4722</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4649</v>
+        <v>0.47</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.465</v>
+        <v>0.4701</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.4705</v>
+        <v>0.4758</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.4718</v>
@@ -2491,16 +2491,16 @@
         <v>0.2984</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2817</v>
+        <v>0.2803</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.2456</v>
+        <v>0.2441</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.225</v>
+        <v>0.2236</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1972</v>
+        <v>0.1958</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2049</v>
@@ -3634,16 +3634,16 @@
         <v>0.3239</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.3112</v>
+        <v>0.3098</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2768</v>
+        <v>0.2754</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2606</v>
+        <v>0.2592</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2359</v>
+        <v>0.2345</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2399</v>
